--- a/Code/Results/Cases/Case_1_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9461692172995129</v>
+        <v>1.006795699771644</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.026513451475777</v>
       </c>
       <c r="E2">
-        <v>0.9596434903884664</v>
+        <v>1.009532559647175</v>
       </c>
       <c r="F2">
-        <v>0.9199234399015859</v>
+        <v>1.00497242631925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.028140619206577</v>
       </c>
       <c r="J2">
-        <v>0.9700885110904759</v>
+        <v>1.012071080893318</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.029335878222202</v>
       </c>
       <c r="L2">
-        <v>0.971695235747419</v>
+        <v>1.012405490914704</v>
       </c>
       <c r="M2">
-        <v>0.9326238585607509</v>
+        <v>1.007859237321635</v>
       </c>
       <c r="N2">
-        <v>0.9714661480469321</v>
+        <v>1.013508337914362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9534053335718415</v>
+        <v>1.008197251359901</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.026832767717716</v>
       </c>
       <c r="E3">
-        <v>0.9655868422326277</v>
+        <v>1.010735825058346</v>
       </c>
       <c r="F3">
-        <v>0.9303113987982865</v>
+        <v>1.007032313929777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303658</v>
+        <v>1.028119731977348</v>
       </c>
       <c r="J3">
-        <v>0.9752521672617578</v>
+        <v>1.013101395776095</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.029464047931005</v>
       </c>
       <c r="L3">
-        <v>0.9766798421741618</v>
+        <v>1.01341151132103</v>
       </c>
       <c r="M3">
-        <v>0.9419210953951729</v>
+        <v>1.009718434850895</v>
       </c>
       <c r="N3">
-        <v>0.9766371372022568</v>
+        <v>1.014540115962452</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9579330712616053</v>
+        <v>1.009102639152691</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.027038990663314</v>
       </c>
       <c r="E4">
-        <v>0.9693130876658022</v>
+        <v>1.011513358573906</v>
       </c>
       <c r="F4">
-        <v>0.9367889765649678</v>
+        <v>1.008363069200797</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.02810454699596</v>
       </c>
       <c r="J4">
-        <v>0.9784777002682257</v>
+        <v>1.013766239260105</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.029545830079758</v>
       </c>
       <c r="L4">
-        <v>0.9797965515889009</v>
+        <v>1.014060866618908</v>
       </c>
       <c r="M4">
-        <v>0.9477153266852791</v>
+        <v>1.010918994503388</v>
       </c>
       <c r="N4">
-        <v>0.9798672508355677</v>
+        <v>1.015205903600468</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9598019338788211</v>
+        <v>1.009482911626778</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.027125589626558</v>
       </c>
       <c r="E5">
-        <v>0.9708527944323516</v>
+        <v>1.011839986557137</v>
       </c>
       <c r="F5">
-        <v>0.9394580827578114</v>
+        <v>1.008922028095641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.028097762610936</v>
       </c>
       <c r="J5">
-        <v>0.9798077482067226</v>
+        <v>1.014045305955706</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.029579933844576</v>
       </c>
       <c r="L5">
-        <v>0.9810824118589895</v>
+        <v>1.014333476974628</v>
       </c>
       <c r="M5">
-        <v>0.9501020148839688</v>
+        <v>1.011423136912126</v>
       </c>
       <c r="N5">
-        <v>0.9811991875946956</v>
+        <v>1.015485366602786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9601137603313422</v>
+        <v>1.009546740631775</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.027140124207022</v>
       </c>
       <c r="E6">
-        <v>0.9711097950342262</v>
+        <v>1.011894814532448</v>
       </c>
       <c r="F6">
-        <v>0.9399031849896521</v>
+        <v>1.009015851539715</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.028096599963333</v>
       </c>
       <c r="J6">
-        <v>0.980029593498544</v>
+        <v>1.014092137257115</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.029585643700015</v>
       </c>
       <c r="L6">
-        <v>0.9812969261389405</v>
+        <v>1.014379227428651</v>
       </c>
       <c r="M6">
-        <v>0.9504999693220948</v>
+        <v>1.011507751549646</v>
       </c>
       <c r="N6">
-        <v>0.9814213479322774</v>
+        <v>1.015532264410014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9579581760609409</v>
+        <v>1.009107721746463</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.027040148187686</v>
       </c>
       <c r="E7">
-        <v>0.9693337643880424</v>
+        <v>1.011517723955896</v>
       </c>
       <c r="F7">
-        <v>0.9368248483239294</v>
+        <v>1.008370539941099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909364</v>
+        <v>1.028104457918005</v>
       </c>
       <c r="J7">
-        <v>0.9784955723055584</v>
+        <v>1.013769969858014</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.029546286868166</v>
       </c>
       <c r="L7">
-        <v>0.9798138272026893</v>
+        <v>1.014064510731977</v>
       </c>
       <c r="M7">
-        <v>0.9477474062859143</v>
+        <v>1.010925733108616</v>
       </c>
       <c r="N7">
-        <v>0.979885148253243</v>
+        <v>1.015209639496253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9486482107890782</v>
+        <v>1.007269678681445</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.026621446480098</v>
       </c>
       <c r="E8">
-        <v>0.9616779624447932</v>
+        <v>1.009939432213309</v>
       </c>
       <c r="F8">
-        <v>0.9234874470085555</v>
+        <v>1.005669027589001</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.02813390540539</v>
       </c>
       <c r="J8">
-        <v>0.9718586509409679</v>
+        <v>1.012419665540274</v>
       </c>
       <c r="K8">
-        <v>1.040962419099498</v>
+        <v>1.029379431388346</v>
       </c>
       <c r="L8">
-        <v>0.973403330404042</v>
+        <v>1.012745816713894</v>
       </c>
       <c r="M8">
-        <v>0.9358142820228359</v>
+        <v>1.008488082817075</v>
       </c>
       <c r="N8">
-        <v>0.9732388016990497</v>
+        <v>1.013857417591499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9309368692297681</v>
+        <v>1.004018848159921</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.025880711243438</v>
       </c>
       <c r="E9">
-        <v>0.9471799915878465</v>
+        <v>1.007149868128996</v>
       </c>
       <c r="F9">
-        <v>0.8978875194172762</v>
+        <v>1.000891439981142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603783</v>
+        <v>1.028173049635261</v>
       </c>
       <c r="J9">
-        <v>0.9591884982792503</v>
+        <v>1.010025865257892</v>
       </c>
       <c r="K9">
-        <v>1.03912086127245</v>
+        <v>1.029076656696341</v>
       </c>
       <c r="L9">
-        <v>0.9611924046096462</v>
+        <v>1.010409523095615</v>
       </c>
       <c r="M9">
-        <v>0.9128873646907238</v>
+        <v>1.00417296713567</v>
       </c>
       <c r="N9">
-        <v>0.9605506559672654</v>
+        <v>1.011460217838144</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9180504149914229</v>
+        <v>1.001843021329063</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.025385058414673</v>
       </c>
       <c r="E10">
-        <v>0.93668640193426</v>
+        <v>1.005284085024044</v>
       </c>
       <c r="F10">
-        <v>0.8790291643647619</v>
+        <v>0.9976936178203025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.028190631074268</v>
       </c>
       <c r="J10">
-        <v>0.9499400998670391</v>
+        <v>1.008419891959954</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.02886901662911</v>
       </c>
       <c r="L10">
-        <v>0.9523013196123891</v>
+        <v>1.008843141418668</v>
       </c>
       <c r="M10">
-        <v>0.8959899147654006</v>
+        <v>1.001281905842057</v>
       </c>
       <c r="N10">
-        <v>0.9512891237685027</v>
+        <v>1.009851963873915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9121586469191229</v>
+        <v>1.000898696951886</v>
       </c>
       <c r="D11">
-        <v>1.022708820873849</v>
+        <v>1.025170031100778</v>
       </c>
       <c r="E11">
-        <v>0.931904154083781</v>
+        <v>1.004474645911796</v>
       </c>
       <c r="F11">
-        <v>0.8703290584636441</v>
+        <v>0.9963056270408939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565124</v>
+        <v>1.028196236062541</v>
       </c>
       <c r="J11">
-        <v>0.9457044986885028</v>
+        <v>1.00772199414136</v>
       </c>
       <c r="K11">
-        <v>1.03721482310515</v>
+        <v>1.028777753015332</v>
       </c>
       <c r="L11">
-        <v>0.9482356285770224</v>
+        <v>1.008162693502325</v>
       </c>
       <c r="M11">
-        <v>0.8881946249188317</v>
+        <v>1.000026403695264</v>
       </c>
       <c r="N11">
-        <v>0.9470475075504626</v>
+        <v>1.009153074960369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9099174908576829</v>
+        <v>1.000547594827383</v>
       </c>
       <c r="D12">
-        <v>1.022279813821027</v>
+        <v>1.02509010175386</v>
       </c>
       <c r="E12">
-        <v>0.9300876092171035</v>
+        <v>1.004173744240184</v>
       </c>
       <c r="F12">
-        <v>0.86700547070597</v>
+        <v>0.9957895443653946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.028198017265132</v>
       </c>
       <c r="J12">
-        <v>0.9440922267913803</v>
+        <v>1.007462379703838</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.028743651841878</v>
       </c>
       <c r="L12">
-        <v>0.94668907809754</v>
+        <v>1.007909607544663</v>
       </c>
       <c r="M12">
-        <v>0.8852169481725591</v>
+        <v>0.9995594842477433</v>
       </c>
       <c r="N12">
-        <v>0.945432946042316</v>
+        <v>1.008893091840568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9104007166052408</v>
+        <v>1.000622922897103</v>
       </c>
       <c r="D13">
-        <v>1.022372003920665</v>
+        <v>1.025107249484421</v>
       </c>
       <c r="E13">
-        <v>0.9304791629497331</v>
+        <v>1.004238299660311</v>
       </c>
       <c r="F13">
-        <v>0.8677227690007264</v>
+        <v>0.9959002698105656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04549479914511</v>
+        <v>1.028197648785465</v>
       </c>
       <c r="J13">
-        <v>0.9444399062232226</v>
+        <v>1.007518085399739</v>
       </c>
       <c r="K13">
-        <v>1.037040147666444</v>
+        <v>1.028750975765278</v>
       </c>
       <c r="L13">
-        <v>0.947022535987916</v>
+        <v>1.00796391072889</v>
       </c>
       <c r="M13">
-        <v>0.8858595760307717</v>
+        <v>0.9996596661921244</v>
       </c>
       <c r="N13">
-        <v>0.945781119218831</v>
+        <v>1.008948876644946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9119745048247233</v>
+        <v>1.000869681699599</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.025163425298077</v>
       </c>
       <c r="E14">
-        <v>0.931754846349077</v>
+        <v>1.004449778228142</v>
       </c>
       <c r="F14">
-        <v>0.8700562825860758</v>
+        <v>0.9962629782525639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.028196389426981</v>
       </c>
       <c r="J14">
-        <v>0.9455720506529113</v>
+        <v>1.007700542215689</v>
       </c>
       <c r="K14">
-        <v>1.037196491250169</v>
+        <v>1.028774938309027</v>
       </c>
       <c r="L14">
-        <v>0.9481085577312967</v>
+        <v>1.008141780263487</v>
       </c>
       <c r="M14">
-        <v>0.8879502322287857</v>
+        <v>0.9999878197400796</v>
       </c>
       <c r="N14">
-        <v>0.9469148714234684</v>
+        <v>1.009131592570504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9129369923917732</v>
+        <v>1.001021672823927</v>
       </c>
       <c r="D15">
-        <v>1.022858667935694</v>
+        <v>1.025198029374264</v>
       </c>
       <c r="E15">
-        <v>0.9325353645304447</v>
+        <v>1.004580045112463</v>
       </c>
       <c r="F15">
-        <v>0.8714814569302158</v>
+        <v>0.9964863851390772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989582</v>
+        <v>1.028195573671256</v>
       </c>
       <c r="J15">
-        <v>0.9462642950277591</v>
+        <v>1.007812908730181</v>
       </c>
       <c r="K15">
-        <v>1.037292397812508</v>
+        <v>1.028789675730796</v>
       </c>
       <c r="L15">
-        <v>0.9487727410836883</v>
+        <v>1.00825132662824</v>
       </c>
       <c r="M15">
-        <v>0.8892271245541845</v>
+        <v>1.000189929797714</v>
       </c>
       <c r="N15">
-        <v>0.9476080988647302</v>
+        <v>1.009244118658335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9184343875086276</v>
+        <v>1.001905646230184</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.025399320714895</v>
       </c>
       <c r="E16">
-        <v>0.9369984041055461</v>
+        <v>1.005337771633596</v>
       </c>
       <c r="F16">
-        <v>0.8795943590734803</v>
+        <v>0.9977856624107103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370124</v>
+        <v>1.028190216864643</v>
       </c>
       <c r="J16">
-        <v>0.9502159889032065</v>
+        <v>1.008466155736214</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.028875045105079</v>
       </c>
       <c r="L16">
-        <v>0.9525662787410081</v>
+        <v>1.008888253624534</v>
       </c>
       <c r="M16">
-        <v>0.8964963505232741</v>
+        <v>1.00136515060923</v>
       </c>
       <c r="N16">
-        <v>0.9515654045987463</v>
+        <v>1.009898293350044</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9217954674741042</v>
+        <v>1.002459548863428</v>
       </c>
       <c r="D17">
-        <v>1.02459455542163</v>
+        <v>1.025525478374841</v>
       </c>
       <c r="E17">
-        <v>0.9397312589629032</v>
+        <v>1.005812654693122</v>
       </c>
       <c r="F17">
-        <v>0.8845327758146695</v>
+        <v>0.99859976137455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04594845407632</v>
+        <v>1.028186319765488</v>
       </c>
       <c r="J17">
-        <v>0.9526301609452785</v>
+        <v>1.00887524489243</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.02892823368536</v>
       </c>
       <c r="L17">
-        <v>0.9548855213972859</v>
+        <v>1.00928718825863</v>
       </c>
       <c r="M17">
-        <v>0.9009213993546531</v>
+        <v>1.002101342565271</v>
       </c>
       <c r="N17">
-        <v>0.9539830050420274</v>
+        <v>1.010307963459785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9237262852112871</v>
+        <v>1.002782421593638</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.025599024633332</v>
       </c>
       <c r="E18">
-        <v>0.9413026136328088</v>
+        <v>1.006089497654567</v>
       </c>
       <c r="F18">
-        <v>0.8873626214405248</v>
+        <v>0.9990742934944372</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.02818385285959</v>
       </c>
       <c r="J18">
-        <v>0.9540163470520785</v>
+        <v>1.009113618959025</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.02895912692504</v>
       </c>
       <c r="L18">
-        <v>0.9562177772780684</v>
+        <v>1.009519668882094</v>
       </c>
       <c r="M18">
-        <v>0.90345707055929</v>
+        <v>1.002530399804979</v>
       </c>
       <c r="N18">
-        <v>0.9553711596920972</v>
+        <v>1.010546676044896</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9243797766076641</v>
+        <v>1.002892477678187</v>
       </c>
       <c r="D19">
-        <v>1.025111305138301</v>
+        <v>1.025624095254975</v>
       </c>
       <c r="E19">
-        <v>0.9418346795731053</v>
+        <v>1.00618386904272</v>
       </c>
       <c r="F19">
-        <v>0.8883192523502306</v>
+        <v>0.9992360434449757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932278</v>
+        <v>1.028182978809425</v>
       </c>
       <c r="J19">
-        <v>0.9544853933261053</v>
+        <v>1.009194857778418</v>
       </c>
       <c r="K19">
-        <v>1.038447921787901</v>
+        <v>1.028969638492465</v>
       </c>
       <c r="L19">
-        <v>0.9566686701896917</v>
+        <v>1.009598903173331</v>
       </c>
       <c r="M19">
-        <v>0.9043142495412281</v>
+        <v>1.002676638324288</v>
       </c>
       <c r="N19">
-        <v>0.9558408720656335</v>
+        <v>1.010628030232731</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9214379603721135</v>
+        <v>1.002400142081356</v>
       </c>
       <c r="D20">
-        <v>1.024523431589316</v>
+        <v>1.025511946906639</v>
       </c>
       <c r="E20">
-        <v>0.9394404238332155</v>
+        <v>1.005761719632777</v>
       </c>
       <c r="F20">
-        <v>0.884008246331905</v>
+        <v>0.9985124493247259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.028186757925705</v>
       </c>
       <c r="J20">
-        <v>0.9523734429165459</v>
+        <v>1.008831378456744</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.028922540567341</v>
       </c>
       <c r="L20">
-        <v>0.954638837245846</v>
+        <v>1.009244408248378</v>
       </c>
       <c r="M20">
-        <v>0.9004513954069258</v>
+        <v>1.002022392601343</v>
       </c>
       <c r="N20">
-        <v>0.9537259224442479</v>
+        <v>1.010264034728729</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9115125703453314</v>
+        <v>1.000797026801523</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.025146884520153</v>
       </c>
       <c r="E21">
-        <v>0.9313803385320629</v>
+        <v>1.004387509750594</v>
       </c>
       <c r="F21">
-        <v>0.8693717665434547</v>
+        <v>0.9961561842308329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499646</v>
+        <v>1.028196768571165</v>
       </c>
       <c r="J21">
-        <v>0.9452397768636938</v>
+        <v>1.007646823902336</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.028767887494854</v>
       </c>
       <c r="L21">
-        <v>0.9477897909268379</v>
+        <v>1.00808941149181</v>
       </c>
       <c r="M21">
-        <v>0.8873369472075466</v>
+        <v>0.9998912026063483</v>
       </c>
       <c r="N21">
-        <v>0.9465821257673578</v>
+        <v>1.009077797970983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9049634739858824</v>
+        <v>0.9997871235086685</v>
       </c>
       <c r="D22">
-        <v>1.02134462109487</v>
+        <v>1.024917017289605</v>
       </c>
       <c r="E22">
-        <v>0.9260772130345151</v>
+        <v>1.003522097095154</v>
       </c>
       <c r="F22">
-        <v>0.8596292967620414</v>
+        <v>0.9946716801406038</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750163</v>
+        <v>1.028201323127522</v>
       </c>
       <c r="J22">
-        <v>0.9405262619319523</v>
+        <v>1.006899820848372</v>
       </c>
       <c r="K22">
-        <v>1.036504773176328</v>
+        <v>1.028669484195791</v>
       </c>
       <c r="L22">
-        <v>0.943270540106851</v>
+        <v>1.007361263806506</v>
       </c>
       <c r="M22">
-        <v>0.8786092465315738</v>
+        <v>0.9985479300973373</v>
       </c>
       <c r="N22">
-        <v>0.9418619171037658</v>
+        <v>1.008329734087001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9084667798043544</v>
+        <v>1.000322681920053</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.025038905493158</v>
       </c>
       <c r="E23">
-        <v>0.9289125059676511</v>
+        <v>1.003981003448065</v>
       </c>
       <c r="F23">
-        <v>0.86484974093942</v>
+        <v>0.9954589386253812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.028199073251875</v>
       </c>
       <c r="J23">
-        <v>0.9430482803299349</v>
+        <v>1.007296035183665</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.028721759700692</v>
       </c>
       <c r="L23">
-        <v>0.9456879957669948</v>
+        <v>1.007747456589261</v>
       </c>
       <c r="M23">
-        <v>0.8832856871338194</v>
+        <v>0.9992603450241445</v>
       </c>
       <c r="N23">
-        <v>0.944387517057153</v>
+        <v>1.008726511092096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9215995936188753</v>
+        <v>1.002426986095816</v>
       </c>
       <c r="D24">
-        <v>1.024555576572009</v>
+        <v>1.025518061316701</v>
       </c>
       <c r="E24">
-        <v>0.9395719094540591</v>
+        <v>1.005784735452404</v>
       </c>
       <c r="F24">
-        <v>0.8842454142872449</v>
+        <v>0.9985519028639323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.028186560538906</v>
       </c>
       <c r="J24">
-        <v>0.9524895102897656</v>
+        <v>1.008851200554655</v>
       </c>
       <c r="K24">
-        <v>1.03816476783782</v>
+        <v>1.028925113446604</v>
       </c>
       <c r="L24">
-        <v>0.9547503663144391</v>
+        <v>1.009263739346227</v>
       </c>
       <c r="M24">
-        <v>0.9006639094578027</v>
+        <v>1.00205806777604</v>
       </c>
       <c r="N24">
-        <v>0.9538421546464509</v>
+        <v>1.010283884976293</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9356892935884338</v>
+        <v>1.004860741150578</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.026072541693807</v>
       </c>
       <c r="E25">
-        <v>0.9510616292313357</v>
+        <v>1.007872076959016</v>
       </c>
       <c r="F25">
-        <v>0.9047896889381494</v>
+        <v>1.002128720824313</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.028164434695646</v>
       </c>
       <c r="J25">
-        <v>0.96259327589494</v>
+        <v>1.010646469523226</v>
       </c>
       <c r="K25">
-        <v>1.039612341487525</v>
+        <v>1.029155958733625</v>
       </c>
       <c r="L25">
-        <v>0.9644703336148372</v>
+        <v>1.011015042468879</v>
       </c>
       <c r="M25">
-        <v>0.9190707937675612</v>
+        <v>1.005290970498297</v>
       </c>
       <c r="N25">
-        <v>0.9639602687577028</v>
+        <v>1.012081703432719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006795699771644</v>
+        <v>0.9461692172995129</v>
       </c>
       <c r="D2">
-        <v>1.026513451475777</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>1.009532559647175</v>
+        <v>0.9596434903884663</v>
       </c>
       <c r="F2">
-        <v>1.00497242631925</v>
+        <v>0.9199234399015858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028140619206577</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>1.012071080893318</v>
+        <v>0.970088511090476</v>
       </c>
       <c r="K2">
-        <v>1.029335878222202</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>1.012405490914704</v>
+        <v>0.9716952357474189</v>
       </c>
       <c r="M2">
-        <v>1.007859237321635</v>
+        <v>0.9326238585607509</v>
       </c>
       <c r="N2">
-        <v>1.013508337914362</v>
+        <v>0.9714661480469322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008197251359901</v>
+        <v>0.953405333571841</v>
       </c>
       <c r="D3">
-        <v>1.026832767717716</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>1.010735825058346</v>
+        <v>0.9655868422326269</v>
       </c>
       <c r="F3">
-        <v>1.007032313929777</v>
+        <v>0.9303113987982859</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028119731977348</v>
+        <v>1.047082302303657</v>
       </c>
       <c r="J3">
-        <v>1.013101395776095</v>
+        <v>0.9752521672617572</v>
       </c>
       <c r="K3">
-        <v>1.029464047931005</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>1.01341151132103</v>
+        <v>0.976679842174161</v>
       </c>
       <c r="M3">
-        <v>1.009718434850895</v>
+        <v>0.9419210953951724</v>
       </c>
       <c r="N3">
-        <v>1.014540115962452</v>
+        <v>0.976637137202256</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009102639152691</v>
+        <v>0.9579330712616052</v>
       </c>
       <c r="D4">
-        <v>1.027038990663314</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>1.011513358573906</v>
+        <v>0.9693130876658019</v>
       </c>
       <c r="F4">
-        <v>1.008363069200797</v>
+        <v>0.9367889765649678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02810454699596</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>1.013766239260105</v>
+        <v>0.9784777002682254</v>
       </c>
       <c r="K4">
-        <v>1.029545830079758</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>1.014060866618908</v>
+        <v>0.9797965515889006</v>
       </c>
       <c r="M4">
-        <v>1.010918994503388</v>
+        <v>0.9477153266852791</v>
       </c>
       <c r="N4">
-        <v>1.015205903600468</v>
+        <v>0.9798672508355676</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009482911626778</v>
+        <v>0.9598019338788205</v>
       </c>
       <c r="D5">
-        <v>1.027125589626558</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>1.011839986557137</v>
+        <v>0.9708527944323511</v>
       </c>
       <c r="F5">
-        <v>1.008922028095641</v>
+        <v>0.9394580827578106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028097762610936</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>1.014045305955706</v>
+        <v>0.979807748206722</v>
       </c>
       <c r="K5">
-        <v>1.029579933844576</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>1.014333476974628</v>
+        <v>0.9810824118589889</v>
       </c>
       <c r="M5">
-        <v>1.011423136912126</v>
+        <v>0.9501020148839679</v>
       </c>
       <c r="N5">
-        <v>1.015485366602786</v>
+        <v>0.9811991875946952</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009546740631775</v>
+        <v>0.9601137603313418</v>
       </c>
       <c r="D6">
-        <v>1.027140124207022</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>1.011894814532448</v>
+        <v>0.9711097950342257</v>
       </c>
       <c r="F6">
-        <v>1.009015851539715</v>
+        <v>0.9399031849896515</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028096599963333</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>1.014092137257115</v>
+        <v>0.9800295934985436</v>
       </c>
       <c r="K6">
-        <v>1.029585643700015</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>1.014379227428651</v>
+        <v>0.9812969261389399</v>
       </c>
       <c r="M6">
-        <v>1.011507751549646</v>
+        <v>0.9504999693220944</v>
       </c>
       <c r="N6">
-        <v>1.015532264410014</v>
+        <v>0.9814213479322772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009107721746463</v>
+        <v>0.957958176060941</v>
       </c>
       <c r="D7">
-        <v>1.027040148187686</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>1.011517723955896</v>
+        <v>0.9693337643880425</v>
       </c>
       <c r="F7">
-        <v>1.008370539941099</v>
+        <v>0.9368248483239294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028104457918005</v>
+        <v>1.047219876909365</v>
       </c>
       <c r="J7">
-        <v>1.013769969858014</v>
+        <v>0.9784955723055585</v>
       </c>
       <c r="K7">
-        <v>1.029546286868166</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>1.014064510731977</v>
+        <v>0.9798138272026894</v>
       </c>
       <c r="M7">
-        <v>1.010925733108616</v>
+        <v>0.9477474062859141</v>
       </c>
       <c r="N7">
-        <v>1.015209639496253</v>
+        <v>0.9798851482532432</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007269678681445</v>
+        <v>0.9486482107890778</v>
       </c>
       <c r="D8">
-        <v>1.026621446480098</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>1.009939432213309</v>
+        <v>0.9616779624447924</v>
       </c>
       <c r="F8">
-        <v>1.005669027589001</v>
+        <v>0.9234874470085553</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02813390540539</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>1.012419665540274</v>
+        <v>0.9718586509409676</v>
       </c>
       <c r="K8">
-        <v>1.029379431388346</v>
+        <v>1.040962419099498</v>
       </c>
       <c r="L8">
-        <v>1.012745816713894</v>
+        <v>0.9734033304040415</v>
       </c>
       <c r="M8">
-        <v>1.008488082817075</v>
+        <v>0.935814282022836</v>
       </c>
       <c r="N8">
-        <v>1.013857417591499</v>
+        <v>0.9732388016990491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004018848159921</v>
+        <v>0.9309368692297685</v>
       </c>
       <c r="D9">
-        <v>1.025880711243438</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>1.007149868128996</v>
+        <v>0.947179991587847</v>
       </c>
       <c r="F9">
-        <v>1.000891439981142</v>
+        <v>0.8978875194172767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028173049635261</v>
+        <v>1.046300249603783</v>
       </c>
       <c r="J9">
-        <v>1.010025865257892</v>
+        <v>0.9591884982792508</v>
       </c>
       <c r="K9">
-        <v>1.029076656696341</v>
+        <v>1.03912086127245</v>
       </c>
       <c r="L9">
-        <v>1.010409523095615</v>
+        <v>0.9611924046096467</v>
       </c>
       <c r="M9">
-        <v>1.00417296713567</v>
+        <v>0.9128873646907244</v>
       </c>
       <c r="N9">
-        <v>1.011460217838144</v>
+        <v>0.960550655967266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001843021329063</v>
+        <v>0.9180504149914236</v>
       </c>
       <c r="D10">
-        <v>1.025385058414673</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>1.005284085024044</v>
+        <v>0.9366864019342607</v>
       </c>
       <c r="F10">
-        <v>0.9976936178203025</v>
+        <v>0.8790291643647621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028190631074268</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>1.008419891959954</v>
+        <v>0.9499400998670398</v>
       </c>
       <c r="K10">
-        <v>1.02886901662911</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>1.008843141418668</v>
+        <v>0.9523013196123896</v>
       </c>
       <c r="M10">
-        <v>1.001281905842057</v>
+        <v>0.895989914765401</v>
       </c>
       <c r="N10">
-        <v>1.009851963873915</v>
+        <v>0.9512891237685032</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000898696951886</v>
+        <v>0.9121586469191229</v>
       </c>
       <c r="D11">
-        <v>1.025170031100778</v>
+        <v>1.022708820873849</v>
       </c>
       <c r="E11">
-        <v>1.004474645911796</v>
+        <v>0.9319041540837807</v>
       </c>
       <c r="F11">
-        <v>0.9963056270408939</v>
+        <v>0.8703290584636436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028196236062541</v>
+        <v>1.045565562565123</v>
       </c>
       <c r="J11">
-        <v>1.00772199414136</v>
+        <v>0.9457044986885026</v>
       </c>
       <c r="K11">
-        <v>1.028777753015332</v>
+        <v>1.03721482310515</v>
       </c>
       <c r="L11">
-        <v>1.008162693502325</v>
+        <v>0.9482356285770221</v>
       </c>
       <c r="M11">
-        <v>1.000026403695264</v>
+        <v>0.8881946249188315</v>
       </c>
       <c r="N11">
-        <v>1.009153074960369</v>
+        <v>0.9470475075504625</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000547594827383</v>
+        <v>0.9099174908576828</v>
       </c>
       <c r="D12">
-        <v>1.02509010175386</v>
+        <v>1.022279813821027</v>
       </c>
       <c r="E12">
-        <v>1.004173744240184</v>
+        <v>0.930087609217103</v>
       </c>
       <c r="F12">
-        <v>0.9957895443653946</v>
+        <v>0.8670054707059696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028198017265132</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>1.007462379703838</v>
+        <v>0.9440922267913801</v>
       </c>
       <c r="K12">
-        <v>1.028743651841878</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>1.007909607544663</v>
+        <v>0.9466890780975394</v>
       </c>
       <c r="M12">
-        <v>0.9995594842477433</v>
+        <v>0.8852169481725588</v>
       </c>
       <c r="N12">
-        <v>1.008893091840568</v>
+        <v>0.9454329460423156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000622922897103</v>
+        <v>0.9104007166052406</v>
       </c>
       <c r="D13">
-        <v>1.025107249484421</v>
+        <v>1.022372003920665</v>
       </c>
       <c r="E13">
-        <v>1.004238299660311</v>
+        <v>0.9304791629497329</v>
       </c>
       <c r="F13">
-        <v>0.9959002698105656</v>
+        <v>0.8677227690007264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028197648785465</v>
+        <v>1.04549479914511</v>
       </c>
       <c r="J13">
-        <v>1.007518085399739</v>
+        <v>0.9444399062232226</v>
       </c>
       <c r="K13">
-        <v>1.028750975765278</v>
+        <v>1.037040147666444</v>
       </c>
       <c r="L13">
-        <v>1.00796391072889</v>
+        <v>0.9470225359879154</v>
       </c>
       <c r="M13">
-        <v>0.9996596661921244</v>
+        <v>0.8858595760307717</v>
       </c>
       <c r="N13">
-        <v>1.008948876644946</v>
+        <v>0.9457811192188311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000869681699599</v>
+        <v>0.9119745048247235</v>
       </c>
       <c r="D14">
-        <v>1.025163425298077</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>1.004449778228142</v>
+        <v>0.9317548463490773</v>
       </c>
       <c r="F14">
-        <v>0.9962629782525639</v>
+        <v>0.8700562825860764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028196389426981</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>1.007700542215689</v>
+        <v>0.9455720506529116</v>
       </c>
       <c r="K14">
-        <v>1.028774938309027</v>
+        <v>1.037196491250169</v>
       </c>
       <c r="L14">
-        <v>1.008141780263487</v>
+        <v>0.9481085577312969</v>
       </c>
       <c r="M14">
-        <v>0.9999878197400796</v>
+        <v>0.8879502322287866</v>
       </c>
       <c r="N14">
-        <v>1.009131592570504</v>
+        <v>0.9469148714234691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001021672823927</v>
+        <v>0.9129369923917733</v>
       </c>
       <c r="D15">
-        <v>1.025198029374264</v>
+        <v>1.022858667935694</v>
       </c>
       <c r="E15">
-        <v>1.004580045112463</v>
+        <v>0.9325353645304445</v>
       </c>
       <c r="F15">
-        <v>0.9964863851390772</v>
+        <v>0.8714814569302158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028195573671256</v>
+        <v>1.045596819989582</v>
       </c>
       <c r="J15">
-        <v>1.007812908730181</v>
+        <v>0.9462642950277591</v>
       </c>
       <c r="K15">
-        <v>1.028789675730796</v>
+        <v>1.037292397812508</v>
       </c>
       <c r="L15">
-        <v>1.00825132662824</v>
+        <v>0.9487727410836881</v>
       </c>
       <c r="M15">
-        <v>1.000189929797714</v>
+        <v>0.8892271245541844</v>
       </c>
       <c r="N15">
-        <v>1.009244118658335</v>
+        <v>0.9476080988647303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001905646230184</v>
+        <v>0.9184343875086279</v>
       </c>
       <c r="D16">
-        <v>1.025399320714895</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>1.005337771633596</v>
+        <v>0.936998404105546</v>
       </c>
       <c r="F16">
-        <v>0.9977856624107103</v>
+        <v>0.8795943590734804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028190216864643</v>
+        <v>1.045816039370123</v>
       </c>
       <c r="J16">
-        <v>1.008466155736214</v>
+        <v>0.9502159889032066</v>
       </c>
       <c r="K16">
-        <v>1.028875045105079</v>
+        <v>1.037844189381429</v>
       </c>
       <c r="L16">
-        <v>1.008888253624534</v>
+        <v>0.952566278741008</v>
       </c>
       <c r="M16">
-        <v>1.00136515060923</v>
+        <v>0.8964963505232744</v>
       </c>
       <c r="N16">
-        <v>1.009898293350044</v>
+        <v>0.9515654045987465</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002459548863428</v>
+        <v>0.9217954674741045</v>
       </c>
       <c r="D17">
-        <v>1.025525478374841</v>
+        <v>1.024594555421631</v>
       </c>
       <c r="E17">
-        <v>1.005812654693122</v>
+        <v>0.9397312589629032</v>
       </c>
       <c r="F17">
-        <v>0.99859976137455</v>
+        <v>0.8845327758146698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028186319765488</v>
+        <v>1.045948454076321</v>
       </c>
       <c r="J17">
-        <v>1.00887524489243</v>
+        <v>0.9526301609452787</v>
       </c>
       <c r="K17">
-        <v>1.02892823368536</v>
+        <v>1.038184670434248</v>
       </c>
       <c r="L17">
-        <v>1.00928718825863</v>
+        <v>0.9548855213972859</v>
       </c>
       <c r="M17">
-        <v>1.002101342565271</v>
+        <v>0.9009213993546533</v>
       </c>
       <c r="N17">
-        <v>1.010307963459785</v>
+        <v>0.9539830050420277</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002782421593638</v>
+        <v>0.9237262852112864</v>
       </c>
       <c r="D18">
-        <v>1.025599024633332</v>
+        <v>1.024980202627937</v>
       </c>
       <c r="E18">
-        <v>1.006089497654567</v>
+        <v>0.9413026136328079</v>
       </c>
       <c r="F18">
-        <v>0.9990742934944372</v>
+        <v>0.8873626214405236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02818385285959</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>1.009113618959025</v>
+        <v>0.9540163470520779</v>
       </c>
       <c r="K18">
-        <v>1.02895912692504</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>1.009519668882094</v>
+        <v>0.9562177772780677</v>
       </c>
       <c r="M18">
-        <v>1.002530399804979</v>
+        <v>0.903457070559289</v>
       </c>
       <c r="N18">
-        <v>1.010546676044896</v>
+        <v>0.9553711596920963</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002892477678187</v>
+        <v>0.9243797766076639</v>
       </c>
       <c r="D19">
-        <v>1.025624095254975</v>
+        <v>1.0251113051383</v>
       </c>
       <c r="E19">
-        <v>1.00618386904272</v>
+        <v>0.9418346795731051</v>
       </c>
       <c r="F19">
-        <v>0.9992360434449757</v>
+        <v>0.8883192523502302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028182978809425</v>
+        <v>1.046049254932278</v>
       </c>
       <c r="J19">
-        <v>1.009194857778418</v>
+        <v>0.954485393326105</v>
       </c>
       <c r="K19">
-        <v>1.028969638492465</v>
+        <v>1.038447921787901</v>
       </c>
       <c r="L19">
-        <v>1.009598903173331</v>
+        <v>0.9566686701896914</v>
       </c>
       <c r="M19">
-        <v>1.002676638324288</v>
+        <v>0.9043142495412276</v>
       </c>
       <c r="N19">
-        <v>1.010628030232731</v>
+        <v>0.955840872065633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002400142081356</v>
+        <v>0.9214379603721139</v>
       </c>
       <c r="D20">
-        <v>1.025511946906639</v>
+        <v>1.024523431589315</v>
       </c>
       <c r="E20">
-        <v>1.005761719632777</v>
+        <v>0.9394404238332158</v>
       </c>
       <c r="F20">
-        <v>0.9985124493247259</v>
+        <v>0.8840082463319063</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028186757925705</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>1.008831378456744</v>
+        <v>0.9523734429165466</v>
       </c>
       <c r="K20">
-        <v>1.028922540567341</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>1.009244408248378</v>
+        <v>0.9546388372458465</v>
       </c>
       <c r="M20">
-        <v>1.002022392601343</v>
+        <v>0.9004513954069271</v>
       </c>
       <c r="N20">
-        <v>1.010264034728729</v>
+        <v>0.9537259224442487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000797026801523</v>
+        <v>0.9115125703453305</v>
       </c>
       <c r="D21">
-        <v>1.025146884520153</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>1.004387509750594</v>
+        <v>0.9313803385320619</v>
       </c>
       <c r="F21">
-        <v>0.9961561842308329</v>
+        <v>0.8693717665434535</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028196768571165</v>
+        <v>1.045539581499646</v>
       </c>
       <c r="J21">
-        <v>1.007646823902336</v>
+        <v>0.9452397768636928</v>
       </c>
       <c r="K21">
-        <v>1.028767887494854</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>1.00808941149181</v>
+        <v>0.947789790926837</v>
       </c>
       <c r="M21">
-        <v>0.9998912026063483</v>
+        <v>0.8873369472075457</v>
       </c>
       <c r="N21">
-        <v>1.009077797970983</v>
+        <v>0.9465821257673567</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9997871235086685</v>
+        <v>0.9049634739858821</v>
       </c>
       <c r="D22">
-        <v>1.024917017289605</v>
+        <v>1.02134462109487</v>
       </c>
       <c r="E22">
-        <v>1.003522097095154</v>
+        <v>0.9260772130345147</v>
       </c>
       <c r="F22">
-        <v>0.9946716801406038</v>
+        <v>0.8596292967620407</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028201323127522</v>
+        <v>1.045274738750164</v>
       </c>
       <c r="J22">
-        <v>1.006899820848372</v>
+        <v>0.940526261931952</v>
       </c>
       <c r="K22">
-        <v>1.028669484195791</v>
+        <v>1.036504773176328</v>
       </c>
       <c r="L22">
-        <v>1.007361263806506</v>
+        <v>0.9432705401068507</v>
       </c>
       <c r="M22">
-        <v>0.9985479300973373</v>
+        <v>0.8786092465315731</v>
       </c>
       <c r="N22">
-        <v>1.008329734087001</v>
+        <v>0.9418619171037653</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000322681920053</v>
+        <v>0.9084667798043548</v>
       </c>
       <c r="D23">
-        <v>1.025038905493158</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>1.003981003448065</v>
+        <v>0.9289125059676511</v>
       </c>
       <c r="F23">
-        <v>0.9954589386253812</v>
+        <v>0.8648497409394202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028199073251875</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>1.007296035183665</v>
+        <v>0.943048280329935</v>
       </c>
       <c r="K23">
-        <v>1.028721759700692</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>1.007747456589261</v>
+        <v>0.9456879957669947</v>
       </c>
       <c r="M23">
-        <v>0.9992603450241445</v>
+        <v>0.8832856871338196</v>
       </c>
       <c r="N23">
-        <v>1.008726511092096</v>
+        <v>0.9443875170571534</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002426986095816</v>
+        <v>0.9215995936188749</v>
       </c>
       <c r="D24">
-        <v>1.025518061316701</v>
+        <v>1.024555576572009</v>
       </c>
       <c r="E24">
-        <v>1.005784735452404</v>
+        <v>0.9395719094540586</v>
       </c>
       <c r="F24">
-        <v>0.9985519028639323</v>
+        <v>0.8842454142872445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028186560538906</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>1.008851200554655</v>
+        <v>0.9524895102897653</v>
       </c>
       <c r="K24">
-        <v>1.028925113446604</v>
+        <v>1.03816476783782</v>
       </c>
       <c r="L24">
-        <v>1.009263739346227</v>
+        <v>0.9547503663144385</v>
       </c>
       <c r="M24">
-        <v>1.00205806777604</v>
+        <v>0.9006639094578021</v>
       </c>
       <c r="N24">
-        <v>1.010283884976293</v>
+        <v>0.9538421546464505</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004860741150578</v>
+        <v>0.935689293588434</v>
       </c>
       <c r="D25">
-        <v>1.026072541693807</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>1.007872076959016</v>
+        <v>0.951061629231336</v>
       </c>
       <c r="F25">
-        <v>1.002128720824313</v>
+        <v>0.9047896889381497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028164434695646</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>1.010646469523226</v>
+        <v>0.9625932758949404</v>
       </c>
       <c r="K25">
-        <v>1.029155958733625</v>
+        <v>1.039612341487524</v>
       </c>
       <c r="L25">
-        <v>1.011015042468879</v>
+        <v>0.9644703336148376</v>
       </c>
       <c r="M25">
-        <v>1.005290970498297</v>
+        <v>0.9190707937675615</v>
       </c>
       <c r="N25">
-        <v>1.012081703432719</v>
+        <v>0.9639602687577032</v>
       </c>
     </row>
   </sheetData>
